--- a/黄疸.xlsx
+++ b/黄疸.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12405"/>
+    <workbookView windowWidth="28620" windowHeight="11625" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566">
   <si>
     <t>基因</t>
   </si>
@@ -521,6 +522,1197 @@
   </si>
   <si>
     <t>PROP1</t>
+  </si>
+  <si>
+    <t>CASK</t>
+  </si>
+  <si>
+    <t>ACADL</t>
+  </si>
+  <si>
+    <t>NOTCH2</t>
+  </si>
+  <si>
+    <t>STXBP2</t>
+  </si>
+  <si>
+    <t>UNC13D</t>
+  </si>
+  <si>
+    <t>STX11</t>
+  </si>
+  <si>
+    <t>UGT1A</t>
+  </si>
+  <si>
+    <t>CIRH1A</t>
+  </si>
+  <si>
+    <t>KLK1</t>
+  </si>
+  <si>
+    <t>DHS</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>UMPS</t>
+  </si>
+  <si>
+    <t>DHODH</t>
+  </si>
+  <si>
+    <t>C10ORF2</t>
+  </si>
+  <si>
+    <t>SUCLA2</t>
+  </si>
+  <si>
+    <t>TK2</t>
+  </si>
+  <si>
+    <t>DPM2</t>
+  </si>
+  <si>
+    <t>ALG6</t>
+  </si>
+  <si>
+    <t>ALG9</t>
+  </si>
+  <si>
+    <t>MOGS</t>
+  </si>
+  <si>
+    <t>SLC35C1</t>
+  </si>
+  <si>
+    <t>ALG3</t>
+  </si>
+  <si>
+    <t>DPM3</t>
+  </si>
+  <si>
+    <t>TUSC3</t>
+  </si>
+  <si>
+    <t>COG4</t>
+  </si>
+  <si>
+    <t>COG1</t>
+  </si>
+  <si>
+    <t>COG5</t>
+  </si>
+  <si>
+    <t>ALG13</t>
+  </si>
+  <si>
+    <t>ALG11</t>
+  </si>
+  <si>
+    <t>PMM2</t>
+  </si>
+  <si>
+    <t>MPDU1</t>
+  </si>
+  <si>
+    <t>COG8</t>
+  </si>
+  <si>
+    <t>B4GALT1</t>
+  </si>
+  <si>
+    <t>PGM1</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>ALG1</t>
+  </si>
+  <si>
+    <t>DDOST</t>
+  </si>
+  <si>
+    <t>SRD5A3</t>
+  </si>
+  <si>
+    <t>SLC35A1</t>
+  </si>
+  <si>
+    <t>DOLK</t>
+  </si>
+  <si>
+    <t>MGAT2</t>
+  </si>
+  <si>
+    <t>DPM1</t>
+  </si>
+  <si>
+    <t>COG6</t>
+  </si>
+  <si>
+    <t>RFT1</t>
+  </si>
+  <si>
+    <t>ALG12</t>
+  </si>
+  <si>
+    <t>ALG8</t>
+  </si>
+  <si>
+    <t>TMEM165</t>
+  </si>
+  <si>
+    <t>MAGT1</t>
+  </si>
+  <si>
+    <t>COG7</t>
+  </si>
+  <si>
+    <t>ALG2</t>
+  </si>
+  <si>
+    <t>UGT1A6</t>
+  </si>
+  <si>
+    <t>HLA-DRB1</t>
+  </si>
+  <si>
+    <t>MTHFR</t>
+  </si>
+  <si>
+    <t>NOS3</t>
+  </si>
+  <si>
+    <t>HLA-DQB1</t>
+  </si>
+  <si>
+    <t>NPRL3</t>
+  </si>
+  <si>
+    <t>OR51I2</t>
+  </si>
+  <si>
+    <t>OR51I1</t>
+  </si>
+  <si>
+    <t>OR51L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuple number in the gene_disease databse for all the terms: 187 </t>
+  </si>
+  <si>
+    <t>ABCC2   ID:1244 -       1</t>
+  </si>
+  <si>
+    <t>OMIM:237500 (CLINVAR)   dubin johnson syndrome  jaundice        0.0842854811320511</t>
+  </si>
+  <si>
+    <t>ORPHANET:234 (ORPHANET) dubin johnson syndrome  jaundice        0.385305056603663</t>
+  </si>
+  <si>
+    <t>umls:C0022350 (DISGENET)        jaundice chronic idiopathic     jaundice        0.0808868962266779</t>
+  </si>
+  <si>
+    <t>HP:0000952 (HPO_PHENOTYPE_GENE) Jaundice        jaundice        0.449522566037607</t>
+  </si>
+  <si>
+    <t>SMPD1   ID:6609 -       0.686164366948849</t>
+  </si>
+  <si>
+    <t>OMIM:257200 (CLINVAR)   niemann pick disease type a     jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>ORPHANET:77292 (ORPHANET)       niemann pick disease type a     jaundice        0.127150668679209</t>
+  </si>
+  <si>
+    <t>OMIM:257200 (GENE_REVIEWS)      niemann pick disease type a     jaundice        0.0741712233962053</t>
+  </si>
+  <si>
+    <t>umls:C0268242 (DISGENET)        niemann pick disease type a     jaundice        0.026048505911302</t>
+  </si>
+  <si>
+    <t>HP:0006579 (HPO_PHENOTYPE_GENE) Prolonged neonatal jaundice     jaundice        0.449522566037607</t>
+  </si>
+  <si>
+    <t>HBB     ID:3043 -       0.651065205801701</t>
+  </si>
+  <si>
+    <t>ORPHANET:232 (ORPHANET) sickle cell anemia      jaundice        0.127150668679209</t>
+  </si>
+  <si>
+    <t>OMIM:603903 (GENE_REVIEWS)      sickle cell anemia      jaundice        0.0741712233962053</t>
+  </si>
+  <si>
+    <t>PUBMED:12581188 12581188 (GAD)  sickle cell anemia      jaundice        0.000220747688679182</t>
+  </si>
+  <si>
+    <t>NPC1    ID:4864 -       0.631297424425683</t>
+  </si>
+  <si>
+    <t>OMIM:257220 (CLINVAR)   niemann pick disease type c1    jaundice        0.0185428058490513</t>
+  </si>
+  <si>
+    <t>OMIM:257220 (GENE_REVIEWS)      niemann pick disease type c1    jaundice        0.0741712233962053</t>
+  </si>
+  <si>
+    <t>umls:C3179455 (DISGENET)        niemann pick disease type c1    jaundice        0.0148896057466135</t>
+  </si>
+  <si>
+    <t>OMIM:607625 (GENE_REVIEWS)      niemann pick disease type c2    jaundice        0.0741712233962053</t>
+  </si>
+  <si>
+    <t>UGT1A1  ID:54658 -      0.630556483023224</t>
+  </si>
+  <si>
+    <t>OMIM:606785 (CLINVAR)   crigler najjar syndrome type ii jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C0017551 (DISGENET)        gilbert disease jaundice        0.0750148225045145</t>
+  </si>
+  <si>
+    <t>OMIM:143500 (CLINVAR)   gilbert syndrome        jaundice        0.0280951603773504</t>
+  </si>
+  <si>
+    <t>PUBMED:12480553 12480553 11764096 (GAD) gilbert syndrome        jaundice        0.00100339858490538</t>
+  </si>
+  <si>
+    <t>umls:C0270210 (DISGENET)        hyperbilirubinemia transient familial neonatal  jaundice        0.0674283849056411</t>
+  </si>
+  <si>
+    <t>PUBMED:12677174 12677174 (GAD)  sickle cell anemia      jaundice        0.000220747688679182</t>
+  </si>
+  <si>
+    <t>NPC2    ID:10577 -      0.629387782773405</t>
+  </si>
+  <si>
+    <t>OMIM:607625 (CLINVAR)   niemann pick disease type c2    jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C1843366 (DISGENET)        niemann pick disease type c2    jaundice        0.0222513670188616</t>
+  </si>
+  <si>
+    <t>LYST    ID:1130 -       0.627837277146415</t>
+  </si>
+  <si>
+    <t>OMIM:214500 (GENE_REVIEWS)      chediak higashi syndrome        jaundice        0.14834244679241</t>
+  </si>
+  <si>
+    <t>umls:C0007965 (DISGENET)        chediak higashi syndrome        jaundice        0.029972264316397</t>
+  </si>
+  <si>
+    <t>PEPD    ID:5184 -       0.608262437970719</t>
+  </si>
+  <si>
+    <t>OMIM:170100 (CLINVAR)   prolidase deficiency    jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>ORPHANET:742 (ORPHANET) prolidase deficiency    jaundice        0.127150668679209</t>
+  </si>
+  <si>
+    <t>umls:C0268532 (DISGENET)        prolidase deficiency    jaundice        0.0223178003293769</t>
+  </si>
+  <si>
+    <t>MPV17   ID:4358 -       0.601871687881501</t>
+  </si>
+  <si>
+    <t>umls:C3151513 (DISGENET)        mitochondrial dna depletion syndrome 3 hepatocerebral type      jaundice        0.014834244679241</t>
+  </si>
+  <si>
+    <t>OMIM:256810 (CLINVAR)   navajo neurohepatopathy jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>ORPHANET:255229 (ORPHANET)      navajo neurohepatopathy jaundice        0.105958890566007</t>
+  </si>
+  <si>
+    <t>umls:C1850406 (DISGENET)        navajo neurohepatopathy jaundice        0.0222845836741192</t>
+  </si>
+  <si>
+    <t>GALE    ID:2582 -       0.597865012830018</t>
+  </si>
+  <si>
+    <t>OMIM:230350 (GENE_REVIEWS)      galactose epimerase deficiency  jaundice        0.14834244679241</t>
+  </si>
+  <si>
+    <t>LBR     ID:3930 -       0.585944637641342</t>
+  </si>
+  <si>
+    <t>OMIM:613471 (CLINVAR)   reynolds syndrome       jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>ORPHANET:779 (ORPHANET) reynolds syndrome       jaundice        0.127150668679209</t>
+  </si>
+  <si>
+    <t>ATP8B1  ID:5205 -       0.577888670597097</t>
+  </si>
+  <si>
+    <t>OMIM:243300 (CLINVAR)   cholestasis benign recurrent intrahepatic 1     jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C1855731 (DISGENET)        cholestasis benign recurrent intrahepatic 1     jaundice        0.0222624392249189</t>
+  </si>
+  <si>
+    <t>OMIM:211600 (GENE_REVIEWS)      cholestasis progressive familial intrahepatic 1 jaundice        0.0741712233962053</t>
+  </si>
+  <si>
+    <t>umls:C0268312 (DISGENET)        cholestasis progressive familial intrahepatic 1 jaundice        0.0226610390138401</t>
+  </si>
+  <si>
+    <t>HP:0006575 (HPO_PHENOTYPE_GENE) Intrahepatic cholestasis with episodic jaundice jaundice        0.449522566037607</t>
+  </si>
+  <si>
+    <t>GALK1   ID:2584 -       0.576673234716817</t>
+  </si>
+  <si>
+    <t>ORPHANET:79237 (ORPHANET)       galactokinase deficiency        jaundice        0.127150668679209</t>
+  </si>
+  <si>
+    <t>LPL     ID:4023 -       0.56017003387277</t>
+  </si>
+  <si>
+    <t>OMIM:238600 (CLINVAR)   hyperlipoproteinemia type i     jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C0023817 (DISGENET)        hyperlipoproteinemia type i     jaundice        0.0272048415144316</t>
+  </si>
+  <si>
+    <t>OMIM:238600 (GENE_REVIEWS)      lipoprotein lipase deficiency   jaundice        0.0741712233962053</t>
+  </si>
+  <si>
+    <t>PIEZO1  ID:9780 -       0.555481456603615</t>
+  </si>
+  <si>
+    <t>ORPHANET:3202 (ORPHANET)        dehydrated hereditary stomatocytosis    jaundice        0.105958890566007</t>
+  </si>
+  <si>
+    <t>PRF1    ID:5551 -       0.553362278792295</t>
+  </si>
+  <si>
+    <t>OMIM:267700 (GENE_REVIEWS)      hemophagocytic lymphohistiocytosis familial 1   jaundice        0.0296684893584821</t>
+  </si>
+  <si>
+    <t>OMIM:603553 (CLINVAR)   hemophagocytic lymphohistiocytosis familial 2   jaundice        0.0185428058490513</t>
+  </si>
+  <si>
+    <t>OMIM:603553 (GENE_REVIEWS)      hemophagocytic lymphohistiocytosis familial 2   jaundice        0.0296684893584821</t>
+  </si>
+  <si>
+    <t>umls:C1863727 (DISGENET)        hemophagocytic lymphohistiocytosis familial 2   jaundice        0.0259599281886719</t>
+  </si>
+  <si>
+    <t>JAG1    ID:182 -        0.535614984320466</t>
+  </si>
+  <si>
+    <t>OMIM:118450 (GENE_REVIEWS)      alagille syndrome       jaundice        0.0494474822641368</t>
+  </si>
+  <si>
+    <t>umls:C0085280 (DISGENET)        alagille syndrome       jaundice        0.0123185407262758</t>
+  </si>
+  <si>
+    <t>PUBMED:12427653 12427653 (GAD)  alagille syndrome       jaundice        0.000220747688679182</t>
+  </si>
+  <si>
+    <t>OMIM:118450 (CLINVAR)   alagille syndrome 1     jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C1956125 (DISGENET)        alagille syndrome 1     jaundice        0.014834244679241</t>
+  </si>
+  <si>
+    <t>ABCB4   ID:5244 -       0.526383461660855</t>
+  </si>
+  <si>
+    <t>OMIM:614972 (CLINVAR)   cholestasis intrahepatic of pregnancy 3 jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C0268312 (DISGENET)        cholestasis progressive familial intrahepatic 1 jaundice        0.0114689221938939</t>
+  </si>
+  <si>
+    <t>umls:C1865643 (DISGENET)        cholestasis progressive familial intrahepatic 3 jaundice        0.022406378052007</t>
+  </si>
+  <si>
+    <t>umls:C0022354 (DISGENET)        jaundice obstructive    jaundice        0.0337141924528206</t>
+  </si>
+  <si>
+    <t>ABCB11  ID:8647 -       0.50562708885317</t>
+  </si>
+  <si>
+    <t>umls:C2608083 (DISGENET)        cholestasis benign recurrent intrahepatic 2     jaundice        0.0222624392249189</t>
+  </si>
+  <si>
+    <t>umls:C0268312 (DISGENET)        cholestasis progressive familial intrahepatic 1 jaundice        0.0115021388491516</t>
+  </si>
+  <si>
+    <t>umls:C3489789 (DISGENET)        cholestasis progressive familial intrahepatic 2 jaundice        0.0223399447414917</t>
+  </si>
+  <si>
+    <t>HP:0001046 (HPO_PHENOTYPE_GENE) Intermittent jaundice   jaundice        0.449522566037607</t>
+  </si>
+  <si>
+    <t>RHAG    ID:6005 -       0.49031673890552</t>
+  </si>
+  <si>
+    <t>OMIM:268150 (CLINVAR)   rh null regulator type  jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C1849387 (DISGENET)        rh null regulator type  jaundice        0.0222513670188616</t>
+  </si>
+  <si>
+    <t>OMIM:185000 (CLINVAR)   stomatocytosis i        jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>ADAMTS13        ID:11093 -      0.483581170523188</t>
+  </si>
+  <si>
+    <t>umls:C1268935 (DISGENET)        thrombotic thrombocytopenic purpura congenital  jaundice        0.0155157986365295</t>
+  </si>
+  <si>
+    <t>OMIM:274150 (CLINVAR)   upshaw schulman syndrome        jaundice        0.0185428058490513</t>
+  </si>
+  <si>
+    <t>DGUOK   ID:1716 -       0.483106434721282</t>
+  </si>
+  <si>
+    <t>OMIM:251880 (GENE_REVIEWS)      mitochondrial dna depletion syndrome 3  jaundice        0.0113325016648136</t>
+  </si>
+  <si>
+    <t>umls:C3151513 (DISGENET)        mitochondrial dna depletion syndrome 3 hepatocerebral type      jaundice        0.0222513670188616</t>
+  </si>
+  <si>
+    <t>PKLR    ID:5313 -       0.481100697048367</t>
+  </si>
+  <si>
+    <t>OMIM:266200 (CLINVAR)   pyruvate kinase deficiency of red cells jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C1849472 (DISGENET)        pyruvate kinase deficiency of red cells jaundice        0.022306728086234</t>
+  </si>
+  <si>
+    <t>AKR1D1  ID:6718 -       0.481045335980995</t>
+  </si>
+  <si>
+    <t>OMIM:235555 (CLINVAR)   bile acid synthesis defect congenital 2 jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C1856127 (DISGENET)        bile acid synthesis defect congenital 2 jaundice        0.0222513670188616</t>
+  </si>
+  <si>
+    <t>AMACR   ID:23600 -      0.481045335980995</t>
+  </si>
+  <si>
+    <t>OMIM:214950 (CLINVAR)   bile acid synthesis defect congenital 4 jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C1858328 (DISGENET)        bile acid synthesis defect congenital 4 jaundice        0.0222513670188616</t>
+  </si>
+  <si>
+    <t>POU1F1  ID:5449 -       0.481045335980995</t>
+  </si>
+  <si>
+    <t>OMIM:613038 (CLINVAR)   pituitary hormone deficiency combined 1 jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C2751608 (DISGENET)        pituitary hormone deficiency combined 1 jaundice        0.0222513670188616</t>
+  </si>
+  <si>
+    <t>HSD3B7  ID:80270 -      0.481045335980995</t>
+  </si>
+  <si>
+    <t>OMIM:607765 (CLINVAR)   bile acid synthesis defect congenital 1 jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C1843116 (DISGENET)        bile acid synthesis defect congenital 1 jaundice        0.0222513670188616</t>
+  </si>
+  <si>
+    <t>CPOX    ID:1371 -       0.475841630288652</t>
+  </si>
+  <si>
+    <t>umls:C0162531 (DISGENET)        coproporphyria hereditary       jaundice        0.0263190642510447</t>
+  </si>
+  <si>
+    <t>SPTB    ID:6710 -       0.475526783087594</t>
+  </si>
+  <si>
+    <t>umls:C1420387 (DISGENET)        spectrin beta erythrocytic      jaundice        0.014834244679241</t>
+  </si>
+  <si>
+    <t>umls:C0037889 (DISGENET)        spherocytosis hereditary        jaundice        0.0111699723707459</t>
+  </si>
+  <si>
+    <t>ALDOA   ID:226 -        0.471773933056469</t>
+  </si>
+  <si>
+    <t>umls:C0272066 (DISGENET)        glycogen storage disease xii    jaundice        0.0222513670188616</t>
+  </si>
+  <si>
+    <t>TRMU    ID:55687 -      0.471773933056469</t>
+  </si>
+  <si>
+    <t>umls:C3278664 (DISGENET)        liver failure infantile transient       jaundice        0.0222513670188616</t>
+  </si>
+  <si>
+    <t>CLDN1   ID:9076 -       0.469952869126821</t>
+  </si>
+  <si>
+    <t>OMIM:607626 (CLINVAR)   ichthyosis leukocyte vacuoles alopecia and sclerosing cholangitis       jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C1843355 (DISGENET)        ichthyosis leukocyte vacuoles alopecia and sclerosing cholangitis       jaundice        0.0111589001646885</t>
+  </si>
+  <si>
+    <t>C15ORF41        ID:84529 -      0.466348970072009</t>
+  </si>
+  <si>
+    <t>OMIM:615631 (CLINVAR)   anemia congenital dyserythropoietic type ib     jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>OMIM:224120 (GENE_REVIEWS)      dyserythropoietic anemia congenital type ia     jaundice        0.00377750055493787</t>
+  </si>
+  <si>
+    <t>OMIM:615631 (GENE_REVIEWS)      dyserythropoietic anemia congenital type ib     jaundice        0.00377750055493787</t>
+  </si>
+  <si>
+    <t>SLC4A1  ID:6521 -       0.460990066332064</t>
+  </si>
+  <si>
+    <t>umls:C0037889 (DISGENET)        spherocytosis hereditary        jaundice        0.0114675002944558</t>
+  </si>
+  <si>
+    <t>G6PD    ID:2539 -       0.458793968962133</t>
+  </si>
+  <si>
+    <t>OMIM:300908 (CLINVAR)   anemia nonspherocytic hemolytic due to g6pd deficiency  jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>STOM    ID:2040 -       0.458793968962133</t>
+  </si>
+  <si>
+    <t>TTC37   ID:9652 -       0.458793968962133</t>
+  </si>
+  <si>
+    <t>OMIM:222470 (CLINVAR)   trichohepatoenteric syndrome 1  jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>TREX1   ID:11277 -      0.458793968962133</t>
+  </si>
+  <si>
+    <t>OMIM:225750 (CLINVAR)   aicardi goutieres syndrome 1    jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>CASK    ID:8573 -       0.458793968962133</t>
+  </si>
+  <si>
+    <t>CYP7B1  ID:9420 -       0.458793968962133</t>
+  </si>
+  <si>
+    <t>OMIM:613812 (CLINVAR)   bile acid synthesis defect congenital 3 jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>TPI1    ID:7167 -       0.458793968962133</t>
+  </si>
+  <si>
+    <t>OMIM:615512 (CLINVAR)   triosephosphate isomerase deficiency    jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>VIPAS39 ID:63894 -      0.458793968962133</t>
+  </si>
+  <si>
+    <t>OMIM:613404 (CLINVAR)   arthrogryposis renal dysfunction and cholestasis 2      jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>CDAN1   ID:146059 -     0.457077567147483</t>
+  </si>
+  <si>
+    <t>HBG2    ID:3048 -       0.452614711286095</t>
+  </si>
+  <si>
+    <t>OMIM:613977 (CLINVAR)   cyanosis transient neonatal     jaundice        0.00140475801886753</t>
+  </si>
+  <si>
+    <t>umls:C3151421 (DISGENET)        cyanosis transient neonatal     jaundice        0.00168738722961942</t>
+  </si>
+  <si>
+    <t>PEX5    ID:5830 -       0.452513087310267</t>
+  </si>
+  <si>
+    <t>OMIM:214100 (GENE_REVIEWS)      peroxisome biogenesis disorder 1a       jaundice        0.00251833370329191</t>
+  </si>
+  <si>
+    <t>OMIM:214110 (CLINVAR)   peroxisome biogenesis disorder 2a       jaundice        0.000472187569367231</t>
+  </si>
+  <si>
+    <t>PEX3    ID:8504 -       0.452040899740899</t>
+  </si>
+  <si>
+    <t>PEX12   ID:5193 -       0.452040899740899</t>
+  </si>
+  <si>
+    <t>PEX10   ID:5192 -       0.452040899740899</t>
+  </si>
+  <si>
+    <t>PEX2    ID:5828 -       0.452040899740899</t>
+  </si>
+  <si>
+    <t>PEX6    ID:5190 -       0.452040899740899</t>
+  </si>
+  <si>
+    <t>PEX13   ID:5194 -       0.452040899740899</t>
+  </si>
+  <si>
+    <t>PEX16   ID:9409 -       0.452040899740899</t>
+  </si>
+  <si>
+    <t>PEX1    ID:5189 -       0.452040899740899</t>
+  </si>
+  <si>
+    <t>PEX19   ID:5824 -       0.452040899740899</t>
+  </si>
+  <si>
+    <t>PEX26   ID:55670 -      0.452040899740899</t>
+  </si>
+  <si>
+    <t>PEX14   ID:5195 -       0.452040899740899</t>
+  </si>
+  <si>
+    <t>GPI     ID:2821 -       0.451316878801203</t>
+  </si>
+  <si>
+    <t>OMIM:613470 (CLINVAR)   hemolytic anemia nonspherocytic due to glucose phosphate isomerase deficiency   jaundice        0.000472187569367231</t>
+  </si>
+  <si>
+    <t>umls:C3150730 (DISGENET)        hemolytic anemia nonspherocytic due to glucose phosphate isomerase deficiency   jaundice        0.00132212519422825</t>
+  </si>
+  <si>
+    <t>ANK1    ID:286 -        0.451316878801203</t>
+  </si>
+  <si>
+    <t>OMIM:182900 (CLINVAR)   spherocytosis type 1    jaundice        0.000472187569367231</t>
+  </si>
+  <si>
+    <t>umls:C2674218 (DISGENET)        spherocytosis type 1    jaundice        0.00132212519422825</t>
+  </si>
+  <si>
+    <t>COX4I2  ID:84701 -      0.451128003773456</t>
+  </si>
+  <si>
+    <t>OMIM:612714 (CLINVAR)   exocrine pancreatic insufficiency dyserythropoietic anemia and calvarial hyperostosis   jaundice        0.000472187569367231</t>
+  </si>
+  <si>
+    <t>umls:C2675184 (DISGENET)        exocrine pancreatic insufficiency dyserythropoietic anemia and calvarial hyperostosis   jaundice        0.00113325016648136</t>
+  </si>
+  <si>
+    <t>ALDOB   ID:229 -        0.450679355253052</t>
+  </si>
+  <si>
+    <t>umls:C0016751 (DISGENET)        fructose intolerance    jaundice        0.00115678921544439</t>
+  </si>
+  <si>
+    <t>DPAGT1  ID:1798 -       0.450297604944568</t>
+  </si>
+  <si>
+    <t>OMIM:608093 (GENE_REVIEWS)      congenital disorder of glycosylation type ij    jaundice        0.000775038906961396</t>
+  </si>
+  <si>
+    <t>HK1     ID:3098 -       0.449994753606974</t>
+  </si>
+  <si>
+    <t>OMIM:235700 (CLINVAR)   hemolytic anemia due to hexokinase deficiency   jaundice        0.000472187569367231</t>
+  </si>
+  <si>
+    <t>POU2AF1 ID:5450 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>ATP7B   ID:540 -        0.449522566037607</t>
+  </si>
+  <si>
+    <t>GALT    ID:2592 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>ABCD3   ID:5825 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>SPINK1  ID:6690 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>NBAS    ID:51594 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>SPIB    ID:6689 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>IL12RB1 ID:3594 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>CPA1    ID:1357 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>IYD     ID:389434 -     0.449522566037607</t>
+  </si>
+  <si>
+    <t>TRHR    ID:7201 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>ETFA    ID:2108 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>HESX1   ID:8820 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>TP53    ID:7157 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>BPGM    ID:669 -        0.449522566037607</t>
+  </si>
+  <si>
+    <t>RNU4ATAC        ID:100151683 -  0.449522566037607</t>
+  </si>
+  <si>
+    <t>IRF5    ID:3663 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>NKX2-5  ID:1482 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>LMF1    ID:64788 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>GPIHBP1 ID:338328 -     0.449522566037607</t>
+  </si>
+  <si>
+    <t>TNFSF15 ID:9966 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>SMAD4   ID:4089 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>EPB41   ID:2035 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>SEC23B  ID:10483 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>PFKM    ID:5213 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>THRB    ID:7068 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>PROP1   ID:5626 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>CDKN2A  ID:1029 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>SLC30A10        ID:55532 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>HNF1B   ID:6928 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>TSHB    ID:7252 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>GPR35   ID:2859 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>IER3IP1 ID:51124 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>TSHR    ID:7253 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>SLCO1B3 ID:28234 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>MST1    ID:4485 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>BRCA2   ID:675 -        0.449522566037607</t>
+  </si>
+  <si>
+    <t>TFAM    ID:7019 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>DUOX2   ID:50506 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>DCDC2   ID:51473 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>KCNN4   ID:3783 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>F5      ID:2153 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>MMEL1   ID:79258 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>TPO     ID:7173 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>TG      ID:7038 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>ACADL   ID:33 - 0.449522566037607</t>
+  </si>
+  <si>
+    <t>PRKAR1A ID:5573 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>BRCA1   ID:672 -        0.449522566037607</t>
+  </si>
+  <si>
+    <t>KRT8    ID:3856 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>KRAS    ID:3845 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>ATP7A   ID:538 -        0.449522566037607</t>
+  </si>
+  <si>
+    <t>JAK2    ID:3717 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>PTPN3   ID:5774 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>ATP6AP1 ID:537 -        0.449522566037607</t>
+  </si>
+  <si>
+    <t>PRSS2   ID:5645 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>IL12A   ID:3592 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>HNF4A   ID:3172 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>PALLD   ID:23022 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>TBX19   ID:9095 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>CTRC    ID:11330 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>PAX8    ID:7849 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>KRT18   ID:3875 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>CCDC115 ID:84317 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>SERPINA1        ID:5265 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>ETFB    ID:2109 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>EIF2AK3 ID:9451 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>SLC5A5  ID:6528 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>RAB27A  ID:5873 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>OCLN    ID:100506658 -  0.449522566037607</t>
+  </si>
+  <si>
+    <t>TCF4    ID:6925 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>PALB2   ID:79728 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>CFTR    ID:1080 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>ETFDH   ID:2110 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>PEX11B  ID:8799 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>SLC2A1  ID:6513 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>LIPA    ID:3988 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>SLC26A4 ID:5172 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>LHX4    ID:89884 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>GLRX5   ID:51218 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>PRSS1   ID:5644 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>CASR    ID:846 -        0.449522566037607</t>
+  </si>
+  <si>
+    <t>LHX3    ID:8022 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>VPS33B  ID:26276 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>DHFR    ID:1719 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>DUOXA2  ID:405753 -     0.449522566037607</t>
+  </si>
+  <si>
+    <t>NR1H4   ID:9971 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>TNPO3   ID:23534 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>THRA    ID:7067 -       0.449522566037607</t>
+  </si>
+  <si>
+    <t>SLCO1B1 ID:10599 -      0.449522566037607</t>
+  </si>
+  <si>
+    <t>NOTCH2  ID:4853 -       0.0607330019414799</t>
+  </si>
+  <si>
+    <t>umls:C0085280 (DISGENET)        alagille syndrome       jaundice        0.0112855196773431</t>
+  </si>
+  <si>
+    <t>STXBP2  ID:6813 -       0.0593369787169642</t>
+  </si>
+  <si>
+    <t>UNC13D  ID:201294 -     0.0593369787169642</t>
+  </si>
+  <si>
+    <t>STX11   ID:8676 -       0.0593369787169642</t>
+  </si>
+  <si>
+    <t>UGT1A   ID:7361 -       0.0346872053993308</t>
+  </si>
+  <si>
+    <t>umls:C0017551 (DISGENET)        gilbert disease jaundice        0.0346872053993308</t>
+  </si>
+  <si>
+    <t>CIRH1A  ID:84916 -      0.0315892032539026</t>
+  </si>
+  <si>
+    <t>OMIM:604901 (CLINVAR)   north american indian childhood cirrhosis       jaundice        0.00927140292452567</t>
+  </si>
+  <si>
+    <t>umls:C1858051 (DISGENET)        north american indian childhood cirrhosis       jaundice        0.0223178003293769</t>
+  </si>
+  <si>
+    <t>KLK1    ID:3816 -       0.0259599281886719</t>
+  </si>
+  <si>
+    <t>umls:C3150343 (DISGENET)        hemolytic anemia nonspherocytic due to hexokinase deficiency    jaundice        0.0259599281886719</t>
+  </si>
+  <si>
+    <t>DHS     ID:10774 -      0.0222845836741192</t>
+  </si>
+  <si>
+    <t>umls:C1867462 (DISGENET)        pseudohyperkalemia familial 1 due to red cell leak      jaundice        0.0111256835094308</t>
+  </si>
+  <si>
+    <t>umls:C0272051 (DISGENET)        xerocytosis hereditary  jaundice        0.0111589001646885</t>
+  </si>
+  <si>
+    <t>APOC2   ID:344 -        0.0111589001646885</t>
+  </si>
+  <si>
+    <t>umls:C0023817 (DISGENET)        hyperlipoproteinemia type i     jaundice        0.0111589001646885</t>
+  </si>
+  <si>
+    <t>CAD     ID:790 -        0.0111256835094308</t>
+  </si>
+  <si>
+    <t>umls:C0037889 (DISGENET)        spherocytosis hereditary        jaundice        0.0111256835094308</t>
+  </si>
+  <si>
+    <t>UMPS    ID:7372 -       0.0111256835094308</t>
+  </si>
+  <si>
+    <t>DHODH   ID:1723 -       0.0111256835094308</t>
+  </si>
+  <si>
+    <t>C10ORF2 ID:56652 -      0.0111256835094308</t>
+  </si>
+  <si>
+    <t>umls:C3151513 (DISGENET)        mitochondrial dna depletion syndrome 3 hepatocerebral type      jaundice        0.0111256835094308</t>
+  </si>
+  <si>
+    <t>SUCLA2  ID:8803 -       0.0111256835094308</t>
+  </si>
+  <si>
+    <t>TK2     ID:7084 -       0.0111256835094308</t>
+  </si>
+  <si>
+    <t>DPM2    ID:8818 -       0.000775038906961393</t>
+  </si>
+  <si>
+    <t>ALG6    ID:29929 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>ALG9    ID:79796 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>MOGS    ID:7841 -       0.000775038906961393</t>
+  </si>
+  <si>
+    <t>SLC35C1 ID:55343 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>ALG3    ID:10195 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>DPM3    ID:54344 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>TUSC3   ID:7991 -       0.000775038906961393</t>
+  </si>
+  <si>
+    <t>COG4    ID:25839 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>COG1    ID:9382 -       0.000775038906961393</t>
+  </si>
+  <si>
+    <t>COG5    ID:10466 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>ALG13   ID:79868 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>ALG11   ID:440138 -     0.000775038906961393</t>
+  </si>
+  <si>
+    <t>PMM2    ID:5373 -       0.000775038906961393</t>
+  </si>
+  <si>
+    <t>MPDU1   ID:9526 -       0.000775038906961393</t>
+  </si>
+  <si>
+    <t>COG8    ID:84342 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>B4GALT1 ID:2683 -       0.000775038906961393</t>
+  </si>
+  <si>
+    <t>PGM1    ID:5236 -       0.000775038906961393</t>
+  </si>
+  <si>
+    <t>MPI     ID:4351 -       0.000775038906961393</t>
+  </si>
+  <si>
+    <t>ALG1    ID:56052 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>DDOST   ID:1650 -       0.000775038906961393</t>
+  </si>
+  <si>
+    <t>SRD5A3  ID:79644 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>SLC35A1 ID:10559 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>DOLK    ID:22845 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>MGAT2   ID:4247 -       0.000775038906961393</t>
+  </si>
+  <si>
+    <t>DPM1    ID:8813 -       0.000775038906961393</t>
+  </si>
+  <si>
+    <t>COG6    ID:57511 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>RFT1    ID:91869 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>ALG12   ID:79087 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>ALG8    ID:79053 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>TMEM165 ID:55858 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>MAGT1   ID:84061 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>COG7    ID:91949 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>ALG2    ID:85365 -      0.000775038906961393</t>
+  </si>
+  <si>
+    <t>UGT1A6  ID:54578 -      0.000668932389936916</t>
+  </si>
+  <si>
+    <t>PUBMED:12480553 12480553 (GAD)  gilbert syndrome        jaundice        0.000668932389936917</t>
+  </si>
+  <si>
+    <t>HLA-DRB1        ID:3123 -       0.000220747688679182</t>
+  </si>
+  <si>
+    <t>PUBMED:11872237 11872237 (GAD)  sickle cell anemia      jaundice        0.000220747688679182</t>
+  </si>
+  <si>
+    <t>MTHFR   ID:4524 -       0.000220747688679182</t>
+  </si>
+  <si>
+    <t>PUBMED:15481892 15481892 (GAD)  sickle cell anemia      jaundice        0.000220747688679182</t>
+  </si>
+  <si>
+    <t>NOS3    ID:4846 -       0.000220747688679182</t>
+  </si>
+  <si>
+    <t>PUBMED:14687036 14687036 (GAD)  sickle cell anemia      jaundice        0.000220747688679182</t>
+  </si>
+  <si>
+    <t>HLA-DQB1        ID:3119 -       0.000220747688679182</t>
+  </si>
+  <si>
+    <t>NPRL3   ID:8131 -       7.41712233962053e-11</t>
+  </si>
+  <si>
+    <t>PUBMED:23406172 (GWAS)  sickle cell anemia      jaundice        7.41712233962053e-11</t>
+  </si>
+  <si>
+    <t>OR51I2  ID:390064 -     1.11256835094308e-11</t>
+  </si>
+  <si>
+    <t>PUBMED:23406172 (GWAS)  sickle cell anemia      jaundice        1.11256835094308e-11</t>
+  </si>
+  <si>
+    <t>OR51I1  ID:390063 -     1.11256835094308e-11</t>
+  </si>
+  <si>
+    <t>OR51L1  ID:119682 -     3.70856116981026e-31</t>
+  </si>
+  <si>
+    <t>PUBMED:23406172 (GWAS)  sickle cell anemia      jaundice        3.70856116981026e-31</t>
+  </si>
+  <si>
+    <t>限制解除</t>
   </si>
 </sst>
 </file>
@@ -529,17 +1721,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -569,8 +1767,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,11 +1782,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,29 +1805,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,60 +1821,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,6 +1841,68 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -715,7 +1913,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,73 +2081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,97 +2093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,17 +2107,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,11 +2142,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,17 +2176,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -991,21 +2204,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1014,10 +2212,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,16 +2224,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,130 +2242,133 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1229,6 +2430,56 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>758</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>759</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Host Control  1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="140398500"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1489,1332 +2740,4400 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A325"/>
+  <dimension ref="A1:A378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="D359" sqref="D359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13" style="1"/>
+    <col min="1" max="1" width="13" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="2" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="4"/>
+      <c r="A170" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="4"/>
+      <c r="A171" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="4"/>
+      <c r="A172" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="4"/>
+      <c r="A173" s="5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="4"/>
+      <c r="A174" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="4"/>
+      <c r="A175" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="4"/>
+      <c r="A176" s="5" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="4"/>
+      <c r="A177" s="5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="4"/>
+      <c r="A178" s="5" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="4"/>
+      <c r="A179" s="5" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="4"/>
+      <c r="A180" s="5" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="4"/>
+      <c r="A181" s="5" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="4"/>
+      <c r="A182" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="4"/>
+      <c r="A183" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="4"/>
+      <c r="A184" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="4"/>
+      <c r="A185" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="4"/>
+      <c r="A186" s="5" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="4"/>
+      <c r="A187" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="4"/>
+      <c r="A188" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="4"/>
+      <c r="A189" s="5" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="4"/>
+      <c r="A190" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="4"/>
+      <c r="A191" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="4"/>
+      <c r="A192" s="5" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="4"/>
+      <c r="A193" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="4"/>
+      <c r="A194" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="4"/>
+      <c r="A195" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="4"/>
+      <c r="A196" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="4"/>
+      <c r="A197" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="4"/>
+      <c r="A198" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="4"/>
+      <c r="A199" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="4"/>
+      <c r="A200" s="5" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="4"/>
+      <c r="A201" s="5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="4"/>
+      <c r="A202" s="5" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="4"/>
+      <c r="A203" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="4"/>
+      <c r="A204" s="5" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="4"/>
+      <c r="A205" s="5" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="4"/>
+      <c r="A206" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="4"/>
+      <c r="A207" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="4"/>
+      <c r="A208" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="4"/>
+      <c r="A209" s="5" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="4"/>
+      <c r="A210" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="4"/>
+      <c r="A211" s="5" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="4"/>
+      <c r="A212" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="4"/>
+      <c r="A213" s="5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="4"/>
+      <c r="A214" s="5" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="4"/>
+      <c r="A215" s="5" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="4"/>
+      <c r="A216" s="5" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="4"/>
+      <c r="A217" s="5" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="4"/>
+      <c r="A218" s="5" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="4"/>
+      <c r="A219" s="5" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="4"/>
+      <c r="A220" s="5" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="4"/>
+      <c r="A221" s="5" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="4"/>
+      <c r="A222" s="5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="4"/>
+      <c r="A223" s="5" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="4"/>
+      <c r="A224" s="5" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="4"/>
+      <c r="A225" s="5" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="4"/>
+      <c r="A226" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="4"/>
+      <c r="A227" s="5" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="4"/>
+      <c r="A228" s="5" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="4"/>
+      <c r="A229"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="4"/>
+      <c r="A230"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="4"/>
+      <c r="A231"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="4"/>
+      <c r="A232"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="4"/>
+      <c r="A233"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="4"/>
+      <c r="A234"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="4"/>
+      <c r="A235"/>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="4"/>
+      <c r="A236"/>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="4"/>
+      <c r="A237"/>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="4"/>
+      <c r="A238"/>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="4"/>
+      <c r="A239"/>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="4"/>
+      <c r="A240"/>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="4"/>
+      <c r="A241"/>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="4"/>
+      <c r="A242"/>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="4"/>
+      <c r="A243"/>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="4"/>
+      <c r="A244"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="4"/>
+      <c r="A245"/>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="4"/>
+      <c r="A246"/>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="4"/>
+      <c r="A247"/>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="4"/>
+      <c r="A248"/>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="4"/>
+      <c r="A249"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="4"/>
+      <c r="A250"/>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="4"/>
+      <c r="A251"/>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="4"/>
+      <c r="A252"/>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="4"/>
+      <c r="A253"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="4"/>
+      <c r="A254"/>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="4"/>
+      <c r="A255"/>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="4"/>
+      <c r="A256"/>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="4"/>
+      <c r="A257"/>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="4"/>
+      <c r="A258"/>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="4"/>
+      <c r="A259"/>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="4"/>
+      <c r="A260"/>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="4"/>
+      <c r="A261"/>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="4"/>
+      <c r="A262"/>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="4"/>
+      <c r="A263"/>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="4"/>
+      <c r="A264"/>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="4"/>
+      <c r="A265"/>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="4"/>
+      <c r="A266"/>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="4"/>
+      <c r="A267"/>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="4"/>
+      <c r="A268"/>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="4"/>
+      <c r="A269"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="4"/>
+      <c r="A270"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="4"/>
+      <c r="A271"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="4"/>
+      <c r="A272"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="4"/>
+      <c r="A273"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="4"/>
+      <c r="A274"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="4"/>
+      <c r="A275"/>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="4"/>
+      <c r="A276"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="4"/>
+      <c r="A277"/>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="4"/>
+      <c r="A278"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="4"/>
+      <c r="A279"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="4"/>
+      <c r="A280"/>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="4"/>
+      <c r="A281"/>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="4"/>
+      <c r="A282"/>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="4"/>
+      <c r="A283"/>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="4"/>
+      <c r="A284"/>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="4"/>
+      <c r="A285"/>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="4"/>
+      <c r="A286"/>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="4"/>
+      <c r="A287"/>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="4"/>
+      <c r="A288"/>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="4"/>
+      <c r="A289"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="4"/>
+      <c r="A290"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="4"/>
+      <c r="A291"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="4"/>
+      <c r="A292"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="4"/>
+      <c r="A293"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="4"/>
+      <c r="A294"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="4"/>
+      <c r="A295"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="4"/>
+      <c r="A296"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="4"/>
+      <c r="A297"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="4"/>
+      <c r="A298"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="4"/>
+      <c r="A299"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="4"/>
+      <c r="A300"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="4"/>
+      <c r="A301"/>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="4"/>
+      <c r="A302"/>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="4"/>
+      <c r="A303"/>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="4"/>
+      <c r="A304"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="4"/>
+      <c r="A305"/>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="4"/>
+      <c r="A306"/>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="4"/>
+      <c r="A307"/>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="4"/>
+      <c r="A308"/>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="4"/>
+      <c r="A309"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="4"/>
+      <c r="A310"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="4"/>
+      <c r="A311"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="4"/>
+      <c r="A312"/>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="4"/>
+      <c r="A313"/>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="4"/>
+      <c r="A314"/>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="4"/>
+      <c r="A315"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="4"/>
+      <c r="A316"/>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="4"/>
+      <c r="A317"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="4"/>
+      <c r="A318"/>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="4"/>
+      <c r="A319"/>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="4"/>
+      <c r="A320"/>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="4"/>
+      <c r="A321"/>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="4"/>
+      <c r="A322"/>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="4"/>
+      <c r="A323"/>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="4"/>
+      <c r="A324"/>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="4"/>
+      <c r="A325"/>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326"/>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327"/>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328"/>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329"/>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330"/>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331"/>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332"/>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333"/>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334"/>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335"/>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336"/>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337"/>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338"/>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339"/>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340"/>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341"/>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342"/>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343"/>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344"/>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345"/>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346"/>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347"/>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348"/>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349"/>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350"/>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351"/>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352"/>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353"/>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354"/>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355"/>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356"/>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357"/>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358"/>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359"/>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360"/>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361"/>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362"/>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363"/>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364"/>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365"/>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366"/>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367"/>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368"/>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369"/>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370"/>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371"/>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372"/>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373"/>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374"/>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375"/>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376"/>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377"/>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A758"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A758"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="15" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" ht="15" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" ht="15" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" ht="15" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" ht="15" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" ht="15" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" ht="15" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" ht="15" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" ht="15" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" ht="15" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" ht="15" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" ht="15" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" ht="15" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" ht="15" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="83" ht="15" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" ht="15" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" ht="15" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="86" ht="15" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" ht="15" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" ht="15" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" ht="15" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" ht="15" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" ht="15" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" ht="15" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" ht="15" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" ht="15" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" ht="15" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" ht="15" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" ht="15" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" ht="15" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" ht="15" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" ht="15" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" ht="15" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" ht="15" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" ht="15" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="108" ht="15" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" ht="15" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" ht="15" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" ht="15" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" ht="15" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" ht="15" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="115" ht="15" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="116" ht="15" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="117" ht="15" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" ht="15" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="120" ht="15" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="121" ht="15" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" ht="15" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" ht="15" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" ht="15" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" ht="15" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="127" ht="15" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" ht="15" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="129" ht="15" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" ht="15" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="132" ht="15" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="133" ht="15" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="134" ht="15" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" ht="15" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="137" ht="15" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="138" ht="15" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" ht="15" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" ht="15" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="142" ht="15" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="143" ht="15" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="144" ht="15" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" ht="15" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="147" ht="15" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="148" ht="15" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="149" ht="15" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" ht="15" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="152" ht="15" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="153" ht="15" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="154" ht="15" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="156" ht="15" spans="1:1">
+      <c r="A156" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="157" ht="15" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="158" ht="15" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" ht="15" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="161" ht="15" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="162" ht="15" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="163" ht="15" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" ht="15" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" ht="15" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="167" ht="15" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="168" ht="15" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="170" ht="15" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="171" ht="15" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="172" ht="15" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="174" ht="15" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" ht="15" spans="1:1">
+      <c r="A175" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="176" ht="15" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="178" ht="15" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="179" ht="15" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="180" ht="15" spans="1:1">
+      <c r="A180" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="181" ht="15" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="183" ht="15" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="184" ht="15" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="185" ht="15" spans="1:1">
+      <c r="A185" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="186" ht="15" spans="1:1">
+      <c r="A186" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="187" ht="15" spans="1:1">
+      <c r="A187" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="189" ht="15" spans="1:1">
+      <c r="A189" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="190" ht="15" spans="1:1">
+      <c r="A190" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="191" ht="15" spans="1:1">
+      <c r="A191" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="193" ht="15" spans="1:1">
+      <c r="A193" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="194" ht="15" spans="1:1">
+      <c r="A194" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="195" ht="15" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="197" ht="15" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="198" ht="15" spans="1:1">
+      <c r="A198" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="199" ht="15" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="201" ht="15" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="202" ht="15" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="203" ht="15" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="205" ht="15" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="206" ht="15" spans="1:1">
+      <c r="A206" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="207" ht="15" spans="1:1">
+      <c r="A207" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="209" ht="15" spans="1:1">
+      <c r="A209" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="210" ht="15" spans="1:1">
+      <c r="A210" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="211" ht="15" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="213" ht="15" spans="1:1">
+      <c r="A213" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="214" ht="15" spans="1:1">
+      <c r="A214" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="215" ht="15" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="217" ht="15" spans="1:1">
+      <c r="A217" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="218" ht="15" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="219" ht="15" spans="1:1">
+      <c r="A219" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="221" ht="15" spans="1:1">
+      <c r="A221" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="222" ht="15" spans="1:1">
+      <c r="A222" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="223" ht="15" spans="1:1">
+      <c r="A223" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="225" ht="15" spans="1:1">
+      <c r="A225" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="226" ht="15" spans="1:1">
+      <c r="A226" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="227" ht="15" spans="1:1">
+      <c r="A227" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="228" ht="15" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="230" ht="15" spans="1:1">
+      <c r="A230" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="231" ht="15" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="232" ht="15" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="233" ht="15" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" ht="15" spans="1:1">
+      <c r="A235" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="236" ht="15" spans="1:1">
+      <c r="A236" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="237" ht="15" spans="1:1">
+      <c r="A237" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="238" ht="15" spans="1:1">
+      <c r="A238" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="240" ht="15" spans="1:1">
+      <c r="A240" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="241" ht="15" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="242" ht="15" spans="1:1">
+      <c r="A242" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="244" ht="15" spans="1:1">
+      <c r="A244" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="245" ht="15" spans="1:1">
+      <c r="A245" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="246" ht="15" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="248" ht="15" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="249" ht="15" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="250" ht="15" spans="1:1">
+      <c r="A250" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="252" ht="15" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="253" ht="15" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="254" ht="15" spans="1:1">
+      <c r="A254" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="256" ht="15" spans="1:1">
+      <c r="A256" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="257" ht="15" spans="1:1">
+      <c r="A257" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="258" ht="15" spans="1:1">
+      <c r="A258" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="260" ht="15" spans="1:1">
+      <c r="A260" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="261" ht="15" spans="1:1">
+      <c r="A261" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="262" ht="15" spans="1:1">
+      <c r="A262" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="264" ht="15" spans="1:1">
+      <c r="A264" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="265" ht="15" spans="1:1">
+      <c r="A265" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="266" ht="15" spans="1:1">
+      <c r="A266" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="268" ht="15" spans="1:1">
+      <c r="A268" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="269" ht="15" spans="1:1">
+      <c r="A269" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="270" ht="15" spans="1:1">
+      <c r="A270" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="272" ht="15" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="273" ht="15" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="274" ht="15" spans="1:1">
+      <c r="A274" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="276" ht="15" spans="1:1">
+      <c r="A276" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="277" ht="15" spans="1:1">
+      <c r="A277" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="278" ht="15" spans="1:1">
+      <c r="A278" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="280" ht="15" spans="1:1">
+      <c r="A280" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="281" ht="15" spans="1:1">
+      <c r="A281" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="282" ht="15" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="284" ht="15" spans="1:1">
+      <c r="A284" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="285" ht="15" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="286" ht="15" spans="1:1">
+      <c r="A286" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="287" ht="15" spans="1:1">
+      <c r="A287" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="289" ht="15" spans="1:1">
+      <c r="A289" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="290" ht="15" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="291" ht="15" spans="1:1">
+      <c r="A291" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="292" ht="15" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="294" ht="15" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="295" ht="15" spans="1:1">
+      <c r="A295" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="296" ht="15" spans="1:1">
+      <c r="A296" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="297" ht="15" spans="1:1">
+      <c r="A297" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="299" ht="15" spans="1:1">
+      <c r="A299" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="300" ht="15" spans="1:1">
+      <c r="A300" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="301" ht="15" spans="1:1">
+      <c r="A301" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="303" ht="15" spans="1:1">
+      <c r="A303" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="304" ht="15" spans="1:1">
+      <c r="A304" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="305" ht="15" spans="1:1">
+      <c r="A305" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="307" ht="15" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="308" ht="15" spans="1:1">
+      <c r="A308" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="309" ht="15" spans="1:1">
+      <c r="A309" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="311" ht="15" spans="1:1">
+      <c r="A311" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="312" ht="15" spans="1:1">
+      <c r="A312" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="314" ht="15" spans="1:1">
+      <c r="A314" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="315" ht="15" spans="1:1">
+      <c r="A315" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="317" ht="15" spans="1:1">
+      <c r="A317" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="318" ht="15" spans="1:1">
+      <c r="A318" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="320" ht="15" spans="1:1">
+      <c r="A320" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="321" ht="15" spans="1:1">
+      <c r="A321" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="323" ht="15" spans="1:1">
+      <c r="A323" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="324" ht="15" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="326" ht="15" spans="1:1">
+      <c r="A326" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="327" ht="15" spans="1:1">
+      <c r="A327" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="329" ht="15" spans="1:1">
+      <c r="A329" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="330" ht="15" spans="1:1">
+      <c r="A330" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="332" ht="15" spans="1:1">
+      <c r="A332" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="333" ht="15" spans="1:1">
+      <c r="A333" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="335" ht="15" spans="1:1">
+      <c r="A335" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="336" ht="15" spans="1:1">
+      <c r="A336" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="338" ht="15" spans="1:1">
+      <c r="A338" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="339" ht="15" spans="1:1">
+      <c r="A339" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="341" ht="15" spans="1:1">
+      <c r="A341" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="342" ht="15" spans="1:1">
+      <c r="A342" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="344" ht="15" spans="1:1">
+      <c r="A344" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="345" ht="15" spans="1:1">
+      <c r="A345" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="347" ht="15" spans="1:1">
+      <c r="A347" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="348" ht="15" spans="1:1">
+      <c r="A348" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="350" ht="15" spans="1:1">
+      <c r="A350" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="351" ht="15" spans="1:1">
+      <c r="A351" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="353" ht="15" spans="1:1">
+      <c r="A353" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="354" ht="15" spans="1:1">
+      <c r="A354" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="356" ht="15" spans="1:1">
+      <c r="A356" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="357" ht="15" spans="1:1">
+      <c r="A357" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="359" ht="15" spans="1:1">
+      <c r="A359" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="360" ht="15" spans="1:1">
+      <c r="A360" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="362" ht="15" spans="1:1">
+      <c r="A362" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="363" ht="15" spans="1:1">
+      <c r="A363" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="365" ht="15" spans="1:1">
+      <c r="A365" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="366" ht="15" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="368" ht="15" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="369" ht="15" spans="1:1">
+      <c r="A369" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="371" ht="15" spans="1:1">
+      <c r="A371" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="372" ht="15" spans="1:1">
+      <c r="A372" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="374" ht="15" spans="1:1">
+      <c r="A374" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="375" ht="15" spans="1:1">
+      <c r="A375" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="377" ht="15" spans="1:1">
+      <c r="A377" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="378" ht="15" spans="1:1">
+      <c r="A378" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="380" ht="15" spans="1:1">
+      <c r="A380" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="381" ht="15" spans="1:1">
+      <c r="A381" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="383" ht="15" spans="1:1">
+      <c r="A383" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="384" ht="15" spans="1:1">
+      <c r="A384" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="386" ht="15" spans="1:1">
+      <c r="A386" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="387" ht="15" spans="1:1">
+      <c r="A387" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="389" ht="15" spans="1:1">
+      <c r="A389" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="390" ht="15" spans="1:1">
+      <c r="A390" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="392" ht="15" spans="1:1">
+      <c r="A392" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="393" ht="15" spans="1:1">
+      <c r="A393" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="395" ht="15" spans="1:1">
+      <c r="A395" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="396" ht="15" spans="1:1">
+      <c r="A396" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="398" ht="15" spans="1:1">
+      <c r="A398" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="399" ht="15" spans="1:1">
+      <c r="A399" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="401" ht="15" spans="1:1">
+      <c r="A401" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="402" ht="15" spans="1:1">
+      <c r="A402" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="404" ht="15" spans="1:1">
+      <c r="A404" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="405" ht="15" spans="1:1">
+      <c r="A405" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="407" ht="15" spans="1:1">
+      <c r="A407" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="408" ht="15" spans="1:1">
+      <c r="A408" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="410" ht="15" spans="1:1">
+      <c r="A410" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="411" ht="15" spans="1:1">
+      <c r="A411" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="413" ht="15" spans="1:1">
+      <c r="A413" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="414" ht="15" spans="1:1">
+      <c r="A414" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="416" ht="15" spans="1:1">
+      <c r="A416" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="417" ht="15" spans="1:1">
+      <c r="A417" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="419" ht="15" spans="1:1">
+      <c r="A419" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="420" ht="15" spans="1:1">
+      <c r="A420" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="422" ht="15" spans="1:1">
+      <c r="A422" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="423" ht="15" spans="1:1">
+      <c r="A423" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="425" ht="15" spans="1:1">
+      <c r="A425" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="426" ht="15" spans="1:1">
+      <c r="A426" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="428" ht="15" spans="1:1">
+      <c r="A428" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="429" ht="15" spans="1:1">
+      <c r="A429" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="431" ht="15" spans="1:1">
+      <c r="A431" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="432" ht="15" spans="1:1">
+      <c r="A432" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="434" ht="15" spans="1:1">
+      <c r="A434" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="435" ht="15" spans="1:1">
+      <c r="A435" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="437" ht="15" spans="1:1">
+      <c r="A437" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="438" ht="15" spans="1:1">
+      <c r="A438" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="440" ht="15" spans="1:1">
+      <c r="A440" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="441" ht="15" spans="1:1">
+      <c r="A441" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="443" ht="15" spans="1:1">
+      <c r="A443" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="444" ht="15" spans="1:1">
+      <c r="A444" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="446" ht="15" spans="1:1">
+      <c r="A446" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="447" ht="15" spans="1:1">
+      <c r="A447" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="449" ht="15" spans="1:1">
+      <c r="A449" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="450" ht="15" spans="1:1">
+      <c r="A450" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="452" ht="15" spans="1:1">
+      <c r="A452" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="453" ht="15" spans="1:1">
+      <c r="A453" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="455" ht="15" spans="1:1">
+      <c r="A455" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="456" ht="15" spans="1:1">
+      <c r="A456" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="458" ht="15" spans="1:1">
+      <c r="A458" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="459" ht="15" spans="1:1">
+      <c r="A459" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="461" ht="15" spans="1:1">
+      <c r="A461" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="462" ht="15" spans="1:1">
+      <c r="A462" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="464" ht="15" spans="1:1">
+      <c r="A464" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="465" ht="15" spans="1:1">
+      <c r="A465" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="467" ht="15" spans="1:1">
+      <c r="A467" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="468" ht="15" spans="1:1">
+      <c r="A468" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="470" ht="15" spans="1:1">
+      <c r="A470" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="471" ht="15" spans="1:1">
+      <c r="A471" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="473" ht="15" spans="1:1">
+      <c r="A473" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="474" ht="15" spans="1:1">
+      <c r="A474" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="476" ht="15" spans="1:1">
+      <c r="A476" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="477" ht="15" spans="1:1">
+      <c r="A477" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="479" ht="15" spans="1:1">
+      <c r="A479" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="480" ht="15" spans="1:1">
+      <c r="A480" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="482" ht="15" spans="1:1">
+      <c r="A482" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="483" ht="15" spans="1:1">
+      <c r="A483" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="485" ht="15" spans="1:1">
+      <c r="A485" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="486" ht="15" spans="1:1">
+      <c r="A486" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="488" ht="15" spans="1:1">
+      <c r="A488" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="489" ht="15" spans="1:1">
+      <c r="A489" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="491" ht="15" spans="1:1">
+      <c r="A491" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="492" ht="15" spans="1:1">
+      <c r="A492" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="494" ht="15" spans="1:1">
+      <c r="A494" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="495" ht="15" spans="1:1">
+      <c r="A495" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="497" ht="15" spans="1:1">
+      <c r="A497" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="498" ht="15" spans="1:1">
+      <c r="A498" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="500" ht="15" spans="1:1">
+      <c r="A500" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="501" ht="15" spans="1:1">
+      <c r="A501" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="503" ht="15" spans="1:1">
+      <c r="A503" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="504" ht="15" spans="1:1">
+      <c r="A504" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="506" ht="15" spans="1:1">
+      <c r="A506" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="507" ht="15" spans="1:1">
+      <c r="A507" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="509" ht="15" spans="1:1">
+      <c r="A509" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="510" ht="15" spans="1:1">
+      <c r="A510" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="512" ht="15" spans="1:1">
+      <c r="A512" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="513" ht="15" spans="1:1">
+      <c r="A513" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="515" ht="15" spans="1:1">
+      <c r="A515" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="516" ht="15" spans="1:1">
+      <c r="A516" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="518" ht="15" spans="1:1">
+      <c r="A518" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="519" ht="15" spans="1:1">
+      <c r="A519" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="521" ht="15" spans="1:1">
+      <c r="A521" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="522" ht="15" spans="1:1">
+      <c r="A522" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="524" ht="15" spans="1:1">
+      <c r="A524" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="525" ht="15" spans="1:1">
+      <c r="A525" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="527" ht="15" spans="1:1">
+      <c r="A527" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="528" ht="15" spans="1:1">
+      <c r="A528" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="530" ht="15" spans="1:1">
+      <c r="A530" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="531" ht="15" spans="1:1">
+      <c r="A531" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="533" ht="15" spans="1:1">
+      <c r="A533" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="534" ht="15" spans="1:1">
+      <c r="A534" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="536" ht="15" spans="1:1">
+      <c r="A536" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="537" ht="15" spans="1:1">
+      <c r="A537" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="539" ht="15" spans="1:1">
+      <c r="A539" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="540" ht="15" spans="1:1">
+      <c r="A540" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="542" ht="15" spans="1:1">
+      <c r="A542" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="543" ht="15" spans="1:1">
+      <c r="A543" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="545" ht="15" spans="1:1">
+      <c r="A545" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="546" ht="15" spans="1:1">
+      <c r="A546" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="548" ht="15" spans="1:1">
+      <c r="A548" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="549" ht="15" spans="1:1">
+      <c r="A549" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="551" ht="15" spans="1:1">
+      <c r="A551" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="552" ht="15" spans="1:1">
+      <c r="A552" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="554" ht="15" spans="1:1">
+      <c r="A554" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="555" ht="15" spans="1:1">
+      <c r="A555" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="557" ht="15" spans="1:1">
+      <c r="A557" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="558" ht="15" spans="1:1">
+      <c r="A558" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="560" ht="15" spans="1:1">
+      <c r="A560" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="561" ht="15" spans="1:1">
+      <c r="A561" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="563" ht="15" spans="1:1">
+      <c r="A563" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="564" ht="15" spans="1:1">
+      <c r="A564" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="566" ht="15" spans="1:1">
+      <c r="A566" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="567" ht="15" spans="1:1">
+      <c r="A567" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="569" ht="15" spans="1:1">
+      <c r="A569" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="570" ht="15" spans="1:1">
+      <c r="A570" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="572" ht="15" spans="1:1">
+      <c r="A572" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="573" ht="15" spans="1:1">
+      <c r="A573" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="575" ht="15" spans="1:1">
+      <c r="A575" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="576" ht="15" spans="1:1">
+      <c r="A576" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="578" ht="15" spans="1:1">
+      <c r="A578" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="579" ht="15" spans="1:1">
+      <c r="A579" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="580" ht="15" spans="1:1">
+      <c r="A580" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="582" ht="15" spans="1:1">
+      <c r="A582" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="583" ht="15" spans="1:1">
+      <c r="A583" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="584" ht="15" spans="1:1">
+      <c r="A584" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="586" ht="15" spans="1:1">
+      <c r="A586" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="587" ht="15" spans="1:1">
+      <c r="A587" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="588" ht="15" spans="1:1">
+      <c r="A588" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="590" ht="15" spans="1:1">
+      <c r="A590" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="591" ht="15" spans="1:1">
+      <c r="A591" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="592" ht="15" spans="1:1">
+      <c r="A592" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="594" ht="15" spans="1:1">
+      <c r="A594" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="595" ht="15" spans="1:1">
+      <c r="A595" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="597" ht="15" spans="1:1">
+      <c r="A597" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="598" ht="15" spans="1:1">
+      <c r="A598" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="599" ht="15" spans="1:1">
+      <c r="A599" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="601" ht="15" spans="1:1">
+      <c r="A601" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="602" ht="15" spans="1:1">
+      <c r="A602" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="604" ht="15" spans="1:1">
+      <c r="A604" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="605" ht="15" spans="1:1">
+      <c r="A605" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="606" ht="15" spans="1:1">
+      <c r="A606" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="608" ht="15" spans="1:1">
+      <c r="A608" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="609" ht="15" spans="1:1">
+      <c r="A609" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="611" ht="15" spans="1:1">
+      <c r="A611" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="612" ht="15" spans="1:1">
+      <c r="A612" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="614" ht="15" spans="1:1">
+      <c r="A614" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="615" ht="15" spans="1:1">
+      <c r="A615" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="617" ht="15" spans="1:1">
+      <c r="A617" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="618" ht="15" spans="1:1">
+      <c r="A618" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="620" ht="15" spans="1:1">
+      <c r="A620" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="621" ht="15" spans="1:1">
+      <c r="A621" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="623" ht="15" spans="1:1">
+      <c r="A623" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="624" ht="15" spans="1:1">
+      <c r="A624" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="626" ht="15" spans="1:1">
+      <c r="A626" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="627" ht="15" spans="1:1">
+      <c r="A627" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="629" ht="15" spans="1:1">
+      <c r="A629" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="630" ht="15" spans="1:1">
+      <c r="A630" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="632" ht="15" spans="1:1">
+      <c r="A632" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="633" ht="15" spans="1:1">
+      <c r="A633" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="635" ht="15" spans="1:1">
+      <c r="A635" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="636" ht="15" spans="1:1">
+      <c r="A636" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="638" ht="15" spans="1:1">
+      <c r="A638" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="639" ht="15" spans="1:1">
+      <c r="A639" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="641" ht="15" spans="1:1">
+      <c r="A641" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="642" ht="15" spans="1:1">
+      <c r="A642" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="644" ht="15" spans="1:1">
+      <c r="A644" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="645" ht="15" spans="1:1">
+      <c r="A645" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="647" ht="15" spans="1:1">
+      <c r="A647" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="648" ht="15" spans="1:1">
+      <c r="A648" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="650" ht="15" spans="1:1">
+      <c r="A650" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="651" ht="15" spans="1:1">
+      <c r="A651" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="653" ht="15" spans="1:1">
+      <c r="A653" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="654" ht="15" spans="1:1">
+      <c r="A654" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="656" ht="15" spans="1:1">
+      <c r="A656" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="657" ht="15" spans="1:1">
+      <c r="A657" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="659" ht="15" spans="1:1">
+      <c r="A659" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="660" ht="15" spans="1:1">
+      <c r="A660" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="662" ht="15" spans="1:1">
+      <c r="A662" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="663" ht="15" spans="1:1">
+      <c r="A663" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="665" ht="15" spans="1:1">
+      <c r="A665" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="666" ht="15" spans="1:1">
+      <c r="A666" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="668" ht="15" spans="1:1">
+      <c r="A668" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="669" ht="15" spans="1:1">
+      <c r="A669" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="671" ht="15" spans="1:1">
+      <c r="A671" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="672" ht="15" spans="1:1">
+      <c r="A672" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="674" ht="15" spans="1:1">
+      <c r="A674" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="675" ht="15" spans="1:1">
+      <c r="A675" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="677" ht="15" spans="1:1">
+      <c r="A677" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="678" ht="15" spans="1:1">
+      <c r="A678" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="680" ht="15" spans="1:1">
+      <c r="A680" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="681" ht="15" spans="1:1">
+      <c r="A681" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="683" ht="15" spans="1:1">
+      <c r="A683" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="684" ht="15" spans="1:1">
+      <c r="A684" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="686" ht="15" spans="1:1">
+      <c r="A686" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="687" ht="15" spans="1:1">
+      <c r="A687" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="689" ht="15" spans="1:1">
+      <c r="A689" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="690" ht="15" spans="1:1">
+      <c r="A690" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="692" ht="15" spans="1:1">
+      <c r="A692" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="693" ht="15" spans="1:1">
+      <c r="A693" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="695" ht="15" spans="1:1">
+      <c r="A695" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="696" ht="15" spans="1:1">
+      <c r="A696" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="698" ht="15" spans="1:1">
+      <c r="A698" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="699" ht="15" spans="1:1">
+      <c r="A699" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="701" ht="15" spans="1:1">
+      <c r="A701" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="702" ht="15" spans="1:1">
+      <c r="A702" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="704" ht="15" spans="1:1">
+      <c r="A704" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="705" ht="15" spans="1:1">
+      <c r="A705" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="707" ht="15" spans="1:1">
+      <c r="A707" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="708" ht="15" spans="1:1">
+      <c r="A708" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="710" ht="15" spans="1:1">
+      <c r="A710" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="711" ht="15" spans="1:1">
+      <c r="A711" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="713" ht="15" spans="1:1">
+      <c r="A713" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="714" ht="15" spans="1:1">
+      <c r="A714" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="716" ht="15" spans="1:1">
+      <c r="A716" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="717" ht="15" spans="1:1">
+      <c r="A717" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="719" ht="15" spans="1:1">
+      <c r="A719" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="720" ht="15" spans="1:1">
+      <c r="A720" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="722" ht="15" spans="1:1">
+      <c r="A722" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="723" ht="15" spans="1:1">
+      <c r="A723" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="725" ht="15" spans="1:1">
+      <c r="A725" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="726" ht="15" spans="1:1">
+      <c r="A726" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="728" ht="15" spans="1:1">
+      <c r="A728" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="729" ht="15" spans="1:1">
+      <c r="A729" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="731" ht="15" spans="1:1">
+      <c r="A731" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="732" ht="15" spans="1:1">
+      <c r="A732" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="734" ht="15" spans="1:1">
+      <c r="A734" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="735" ht="15" spans="1:1">
+      <c r="A735" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="737" ht="15" spans="1:1">
+      <c r="A737" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="738" ht="15" spans="1:1">
+      <c r="A738" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="740" ht="15" spans="1:1">
+      <c r="A740" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="741" ht="15" spans="1:1">
+      <c r="A741" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="743" ht="15" spans="1:1">
+      <c r="A743" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="744" ht="15" spans="1:1">
+      <c r="A744" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="746" ht="15" spans="1:1">
+      <c r="A746" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="747" ht="15" spans="1:1">
+      <c r="A747" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="749" ht="15" spans="1:1">
+      <c r="A749" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="750" ht="15" spans="1:1">
+      <c r="A750" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="752" ht="15" spans="1:1">
+      <c r="A752" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="753" ht="15" spans="1:1">
+      <c r="A753" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="755" ht="15" spans="1:1">
+      <c r="A755" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="756" ht="15" spans="1:1">
+      <c r="A756" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId3">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>758</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>759</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
 </file>